--- a/data/trans_camb/P1423_2016_2023-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1423_2016_2023-Edad-trans_camb.xlsx
@@ -570,7 +570,7 @@
         <v>1.419246989241373</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.703218201033469</v>
+        <v>1.703218201033468</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1030014931875344</v>
+        <v>0.1679831355760955</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4051064307864548</v>
+        <v>-0.3881599960927314</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3822594382234827</v>
+        <v>0.4246808722983926</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.673899382787068</v>
+        <v>5.6558898777752</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.197984853521525</v>
+        <v>4.447133011404381</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.819403262249534</v>
+        <v>4.028550882689023</v>
       </c>
     </row>
     <row r="7">
@@ -632,11 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6973188599342034</v>
-      </c>
-      <c r="D8" s="6" t="inlineStr"/>
+        <v>-0.7058200362788835</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.8687026600967996</v>
+      </c>
       <c r="E8" s="6" t="n">
-        <v>0.08194004225310379</v>
+        <v>0.07617603492124352</v>
       </c>
     </row>
     <row r="9">
@@ -649,7 +651,7 @@
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="n">
-        <v>13.52602431252219</v>
+        <v>15.7271666849502</v>
       </c>
     </row>
     <row r="10">
@@ -681,13 +683,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2471929602034914</v>
+        <v>-0.3226226307246836</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05742916912312683</v>
+        <v>0.1137834860831027</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1963923458973043</v>
+        <v>0.0808335414273707</v>
       </c>
     </row>
     <row r="12">
@@ -698,13 +700,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.683154711355054</v>
+        <v>2.682316673238854</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.550606734630475</v>
+        <v>3.679410920860517</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.50602192495847</v>
+        <v>2.451735601477589</v>
       </c>
     </row>
     <row r="13">
@@ -718,7 +720,7 @@
         <v>1.554415386386957</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>1.469015985493211</v>
+        <v>1.469015985493212</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>1.540323095059553</v>
@@ -733,10 +735,10 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>-0.04150206317116753</v>
+        <v>-0.08716044875464757</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.06883633531591202</v>
+        <v>-0.05739052717853459</v>
       </c>
     </row>
     <row r="15">
@@ -748,10 +750,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>7.898541371525152</v>
+        <v>7.265442619321538</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5.142747941094455</v>
+        <v>4.914853557824509</v>
       </c>
     </row>
     <row r="16">
@@ -769,7 +771,7 @@
         <v>2.99935434609985</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7528720198640371</v>
+        <v>0.7528720198640377</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>1.885132835082613</v>
@@ -783,13 +785,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.384797582803314</v>
+        <v>1.225928398519721</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.171133005972631</v>
+        <v>-1.510228653917667</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5318544946819558</v>
+        <v>0.4089249848918061</v>
       </c>
     </row>
     <row r="18">
@@ -800,13 +802,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.454078877977916</v>
+        <v>5.10394555854311</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.996473595537147</v>
+        <v>2.728598296483732</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.437046556394408</v>
+        <v>3.37551447575505</v>
       </c>
     </row>
     <row r="19">
@@ -820,10 +822,10 @@
         <v>2.7813341688003</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.1845488721007642</v>
+        <v>0.1845488721007644</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7334403447514382</v>
+        <v>0.7334403447514385</v>
       </c>
     </row>
     <row r="20">
@@ -834,13 +836,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.4839993209079205</v>
+        <v>0.5257736852314011</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2348382017369964</v>
+        <v>-0.2873716071286023</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1386632640515215</v>
+        <v>0.1035569856042735</v>
       </c>
     </row>
     <row r="21">
@@ -851,13 +853,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>9.309453017274377</v>
+        <v>8.63334941378908</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.115863607023205</v>
+        <v>0.903016991215339</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.642382229063873</v>
+        <v>1.652180610394812</v>
       </c>
     </row>
     <row r="22">
@@ -875,10 +877,10 @@
         <v>4.601332337414379</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.510418463192524</v>
+        <v>1.510418463192525</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.073212206647726</v>
+        <v>3.073212206647728</v>
       </c>
     </row>
     <row r="23">
@@ -889,13 +891,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.330310661655844</v>
+        <v>2.40099287019976</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.328811832479268</v>
+        <v>-1.387206981788571</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.201571462754601</v>
+        <v>1.171627641830896</v>
       </c>
     </row>
     <row r="24">
@@ -906,13 +908,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.010880117863598</v>
+        <v>6.977405009519641</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.080940422072725</v>
+        <v>4.051818190400081</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.817184270308472</v>
+        <v>4.936444898999007</v>
       </c>
     </row>
     <row r="25">
@@ -926,10 +928,10 @@
         <v>1.909194844904358</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.2031759880698645</v>
+        <v>0.2031759880698647</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6236302529516314</v>
+        <v>0.6236302529516317</v>
       </c>
     </row>
     <row r="26">
@@ -940,13 +942,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.6790766838257458</v>
+        <v>0.682527871238601</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1472640724540639</v>
+        <v>-0.1444908543322095</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.189801067296137</v>
+        <v>0.1996823247204581</v>
       </c>
     </row>
     <row r="27">
@@ -957,13 +959,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4.374582493027492</v>
+        <v>4.290139270786935</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7045911777325015</v>
+        <v>0.6968707198049872</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.178217892944292</v>
+        <v>1.216510291613602</v>
       </c>
     </row>
     <row r="28">
@@ -995,13 +997,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.7107843414953772</v>
+        <v>-1.142259483597282</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.384779192862787</v>
+        <v>-4.335662385068152</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.671636963458265</v>
+        <v>-1.570849839319835</v>
       </c>
     </row>
     <row r="30">
@@ -1012,13 +1014,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.089958857086044</v>
+        <v>4.78603411206253</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.427184260133946</v>
+        <v>3.081608854421478</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.276304794918574</v>
+        <v>3.215028452217354</v>
       </c>
     </row>
     <row r="31">
@@ -1046,13 +1048,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1285312242728849</v>
+        <v>-0.1828066200867443</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.278488172942862</v>
+        <v>-0.2678968125389143</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1557820617668028</v>
+        <v>-0.1513529485669641</v>
       </c>
     </row>
     <row r="33">
@@ -1063,13 +1065,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.632206258333485</v>
+        <v>1.578306843226045</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3108520370990523</v>
+        <v>0.2829181031222043</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4391056224514795</v>
+        <v>0.4284903978161713</v>
       </c>
     </row>
     <row r="34">
@@ -1084,13 +1086,13 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>1.956947614776485</v>
+        <v>1.956947614776484</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0.006448022062421899</v>
+        <v>0.006448022062423286</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.8293878921945302</v>
+        <v>0.8293878921945317</v>
       </c>
     </row>
     <row r="35">
@@ -1101,13 +1103,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.1175699296359783</v>
+        <v>-0.03870121319842736</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.211751675100438</v>
+        <v>-4.552509670616031</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.954479035986844</v>
+        <v>-1.842698199833359</v>
       </c>
     </row>
     <row r="36">
@@ -1118,13 +1120,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.917827136808864</v>
+        <v>4.018867270849353</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.788060108494374</v>
+        <v>3.580500444112017</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.300549830610843</v>
+        <v>3.032886467429566</v>
       </c>
     </row>
     <row r="37">
@@ -1135,13 +1137,13 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>1.138487961125595</v>
+        <v>1.138487961125594</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.0005457677624789847</v>
+        <v>0.0005457677624791022</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.1172342046633222</v>
+        <v>0.1172342046633224</v>
       </c>
     </row>
     <row r="38">
@@ -1152,13 +1154,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.09877272535485492</v>
+        <v>-0.07431901642876908</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2820283284571999</v>
+        <v>-0.3096773921989568</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2140677390618274</v>
+        <v>-0.2086692828747705</v>
       </c>
     </row>
     <row r="39">
@@ -1169,13 +1171,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>4.845448298598193</v>
+        <v>5.357622991880446</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4065406266613073</v>
+        <v>0.379839810532732</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.6037397918270249</v>
+        <v>0.5607013383677192</v>
       </c>
     </row>
     <row r="40">
@@ -1190,7 +1192,7 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>1.606349960029975</v>
+        <v>1.606349960029974</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>0.6815835326748176</v>
@@ -1207,13 +1209,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.205789145387661</v>
+        <v>-2.632823913242297</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.521870190594684</v>
+        <v>-4.18566585309678</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.442125778068248</v>
+        <v>-2.113273667071652</v>
       </c>
     </row>
     <row r="42">
@@ -1224,13 +1226,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.974301775413106</v>
+        <v>5.078323458451016</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.816560165428068</v>
+        <v>4.625231721839243</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.998950577068743</v>
+        <v>4.140797304399603</v>
       </c>
     </row>
     <row r="43">
@@ -1241,7 +1243,7 @@
         </is>
       </c>
       <c r="C43" s="6" t="n">
-        <v>0.2835749450942058</v>
+        <v>0.2835749450942056</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>0.058117119185892</v>
@@ -1258,13 +1260,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3034442903329372</v>
+        <v>-0.3308921113521665</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2431475757003694</v>
+        <v>-0.2717239407115845</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2149439719968943</v>
+        <v>-0.1792745567528674</v>
       </c>
     </row>
     <row r="45">
@@ -1275,13 +1277,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.234385912744132</v>
+        <v>1.358621405552896</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5620890639292795</v>
+        <v>0.499242880172434</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.5261113562107086</v>
+        <v>0.5708684167701783</v>
       </c>
     </row>
     <row r="46">
@@ -1299,10 +1301,10 @@
         <v>2.724977117688354</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>1.361436425828154</v>
+        <v>1.361436425828153</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2.039134278798833</v>
+        <v>2.03913427879883</v>
       </c>
     </row>
     <row r="47">
@@ -1313,13 +1315,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.819538398091522</v>
+        <v>1.863933696066095</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.1481381422560347</v>
+        <v>0.2131283384441587</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1.3203915129366</v>
+        <v>1.267167320068687</v>
       </c>
     </row>
     <row r="48">
@@ -1330,13 +1332,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.714137547533146</v>
+        <v>3.63041971586481</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.481507046386657</v>
+        <v>2.427196522230945</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.842418809344029</v>
+        <v>2.806486059370398</v>
       </c>
     </row>
     <row r="49">
@@ -1350,10 +1352,10 @@
         <v>1.310761370565879</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.1984595189087758</v>
+        <v>0.1984595189087756</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.4510144657149754</v>
+        <v>0.4510144657149748</v>
       </c>
     </row>
     <row r="50">
@@ -1364,13 +1366,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.7371004417249477</v>
+        <v>0.7587993090203295</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.02481511281811856</v>
+        <v>0.03143603110211787</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.2654050788017956</v>
+        <v>0.261637972793338</v>
       </c>
     </row>
     <row r="51">
@@ -1381,13 +1383,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>2.146731220943445</v>
+        <v>2.149763422569868</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4028479597295896</v>
+        <v>0.3940239402589524</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.692904538116188</v>
+        <v>0.6872416640730296</v>
       </c>
     </row>
     <row r="52">
